--- a/excel/synthetic_ef_up_graph_time_PTGG.xlsx
+++ b/excel/synthetic_ef_up_graph_time_PTGG.xlsx
@@ -422,294 +422,270 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
+      <c r="B2">
+        <v>1.672</v>
+      </c>
       <c r="C2">
-        <v>1.672</v>
+        <v>1.519</v>
       </c>
       <c r="D2">
-        <v>1.519</v>
+        <v>0.4970000000000001</v>
       </c>
       <c r="E2">
-        <v>0.4970000000000001</v>
+        <v>0.9169999999999999</v>
       </c>
       <c r="F2">
-        <v>0.9169999999999999</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>1.100724160631995</v>
       </c>
       <c r="H2">
-        <v>1.100724160631995</v>
+        <v>3.364185110663984</v>
       </c>
       <c r="I2">
-        <v>3.364185110663984</v>
-      </c>
-      <c r="J2">
         <v>1.823336968375137</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
+      <c r="B3">
+        <v>6.257000000000001</v>
+      </c>
       <c r="C3">
-        <v>6.257000000000001</v>
+        <v>4.279</v>
       </c>
       <c r="D3">
-        <v>4.279</v>
+        <v>2.16</v>
       </c>
       <c r="E3">
-        <v>2.16</v>
+        <v>2.505</v>
       </c>
       <c r="F3">
-        <v>2.505</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>1.462257536807666</v>
       </c>
       <c r="H3">
-        <v>1.462257536807666</v>
+        <v>2.896759259259259</v>
       </c>
       <c r="I3">
-        <v>2.896759259259259</v>
-      </c>
-      <c r="J3">
         <v>2.497804391217565</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
+      <c r="B4">
+        <v>23.676</v>
+      </c>
       <c r="C4">
-        <v>23.676</v>
+        <v>11.957</v>
       </c>
       <c r="D4">
-        <v>11.957</v>
+        <v>8.023999999999999</v>
       </c>
       <c r="E4">
-        <v>8.023999999999999</v>
+        <v>8.576000000000001</v>
       </c>
       <c r="F4">
-        <v>8.576000000000001</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>1.98009534164088</v>
       </c>
       <c r="H4">
-        <v>1.98009534164088</v>
+        <v>2.950648055832503</v>
       </c>
       <c r="I4">
-        <v>2.950648055832503</v>
-      </c>
-      <c r="J4">
         <v>2.760727611940298</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
+      <c r="B5">
+        <v>87.274</v>
+      </c>
       <c r="C5">
-        <v>87.274</v>
+        <v>39.535</v>
       </c>
       <c r="D5">
-        <v>39.535</v>
+        <v>27.083</v>
       </c>
       <c r="E5">
-        <v>27.083</v>
+        <v>29.597</v>
       </c>
       <c r="F5">
-        <v>29.597</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>2.207512330846086</v>
       </c>
       <c r="H5">
-        <v>2.207512330846086</v>
+        <v>3.222464276483403</v>
       </c>
       <c r="I5">
-        <v>3.222464276483403</v>
-      </c>
-      <c r="J5">
         <v>2.948744805216745</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
+      <c r="B6">
+        <v>301.337</v>
+      </c>
       <c r="C6">
-        <v>301.337</v>
+        <v>120.978</v>
       </c>
       <c r="D6">
-        <v>120.978</v>
+        <v>94.152</v>
       </c>
       <c r="E6">
-        <v>94.152</v>
+        <v>97.578</v>
       </c>
       <c r="F6">
-        <v>97.578</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>2.490841309990246</v>
       </c>
       <c r="H6">
-        <v>2.490841309990246</v>
+        <v>3.200537428838474</v>
       </c>
       <c r="I6">
-        <v>3.200537428838474</v>
-      </c>
-      <c r="J6">
         <v>3.088165365143783</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
+      <c r="B7">
+        <v>988.737</v>
+      </c>
       <c r="C7">
-        <v>988.737</v>
+        <v>359.634</v>
       </c>
       <c r="D7">
-        <v>359.634</v>
+        <v>302.522</v>
       </c>
       <c r="E7">
-        <v>302.522</v>
+        <v>311.26</v>
       </c>
       <c r="F7">
-        <v>311.26</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>2.749286774887802</v>
       </c>
       <c r="H7">
-        <v>2.749286774887802</v>
+        <v>3.268314370525119</v>
       </c>
       <c r="I7">
-        <v>3.268314370525119</v>
-      </c>
-      <c r="J7">
         <v>3.176563001991904</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
+      <c r="B8">
+        <v>3081.592</v>
+      </c>
       <c r="C8">
-        <v>3081.592</v>
+        <v>1101.031</v>
       </c>
       <c r="D8">
-        <v>1101.031</v>
+        <v>965.196</v>
       </c>
       <c r="E8">
-        <v>965.196</v>
+        <v>942.9159999999999</v>
       </c>
       <c r="F8">
-        <v>942.9159999999999</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>2.798824011313032</v>
       </c>
       <c r="H8">
-        <v>2.798824011313032</v>
+        <v>3.192711117741889</v>
       </c>
       <c r="I8">
-        <v>3.192711117741889</v>
-      </c>
-      <c r="J8">
         <v>3.268151139656131</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
+      <c r="B9">
+        <v>9055.668000000001</v>
+      </c>
       <c r="C9">
-        <v>9055.668000000001</v>
+        <v>3311.849</v>
       </c>
       <c r="D9">
-        <v>3311.849</v>
+        <v>2983.361</v>
       </c>
       <c r="E9">
-        <v>2983.361</v>
+        <v>2823.387</v>
       </c>
       <c r="F9">
-        <v>2823.387</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>2.734323938078095</v>
       </c>
       <c r="H9">
-        <v>2.734323938078095</v>
+        <v>3.035391291901986</v>
       </c>
       <c r="I9">
-        <v>3.035391291901986</v>
-      </c>
-      <c r="J9">
         <v>3.207377522103772</v>
       </c>
     </row>

--- a/excel/synthetic_ef_up_graph_time_PTGG.xlsx
+++ b/excel/synthetic_ef_up_graph_time_PTGG.xlsx
@@ -471,7 +471,7 @@
         <v>0.4970000000000001</v>
       </c>
       <c r="E2">
-        <v>0.9169999999999999</v>
+        <v>0.9129999999999999</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -483,7 +483,7 @@
         <v>3.364185110663984</v>
       </c>
       <c r="I2">
-        <v>1.823336968375137</v>
+        <v>1.83132530120482</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -500,7 +500,7 @@
         <v>2.16</v>
       </c>
       <c r="E3">
-        <v>2.505</v>
+        <v>2.41</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -512,7 +512,7 @@
         <v>2.896759259259259</v>
       </c>
       <c r="I3">
-        <v>2.497804391217565</v>
+        <v>2.596265560165976</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -529,7 +529,7 @@
         <v>8.023999999999999</v>
       </c>
       <c r="E4">
-        <v>8.576000000000001</v>
+        <v>7.841000000000001</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -541,7 +541,7 @@
         <v>2.950648055832503</v>
       </c>
       <c r="I4">
-        <v>2.760727611940298</v>
+        <v>3.019512817242698</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -558,7 +558,7 @@
         <v>27.083</v>
       </c>
       <c r="E5">
-        <v>29.597</v>
+        <v>27.214</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -570,7 +570,7 @@
         <v>3.222464276483403</v>
       </c>
       <c r="I5">
-        <v>2.948744805216745</v>
+        <v>3.206952303961196</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -587,7 +587,7 @@
         <v>94.152</v>
       </c>
       <c r="E6">
-        <v>97.578</v>
+        <v>90.235</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -599,7 +599,7 @@
         <v>3.200537428838474</v>
       </c>
       <c r="I6">
-        <v>3.088165365143783</v>
+        <v>3.339469163849948</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -616,7 +616,7 @@
         <v>302.522</v>
       </c>
       <c r="E7">
-        <v>311.26</v>
+        <v>287.543</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -628,7 +628,7 @@
         <v>3.268314370525119</v>
       </c>
       <c r="I7">
-        <v>3.176563001991904</v>
+        <v>3.438570926783124</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -645,7 +645,7 @@
         <v>965.196</v>
       </c>
       <c r="E8">
-        <v>942.9159999999999</v>
+        <v>876.48</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -657,7 +657,7 @@
         <v>3.192711117741889</v>
       </c>
       <c r="I8">
-        <v>3.268151139656131</v>
+        <v>3.515872581234027</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -674,7 +674,7 @@
         <v>2983.361</v>
       </c>
       <c r="E9">
-        <v>2823.387</v>
+        <v>2625.923</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -686,7 +686,7 @@
         <v>3.035391291901986</v>
       </c>
       <c r="I9">
-        <v>3.207377522103772</v>
+        <v>3.44856570432568</v>
       </c>
     </row>
   </sheetData>

--- a/excel/synthetic_ef_up_graph_time_PTGG.xlsx
+++ b/excel/synthetic_ef_up_graph_time_PTGG.xlsx
@@ -471,7 +471,7 @@
         <v>0.4970000000000001</v>
       </c>
       <c r="E2">
-        <v>0.9129999999999999</v>
+        <v>0.902</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -483,7 +483,7 @@
         <v>3.364185110663984</v>
       </c>
       <c r="I2">
-        <v>1.83132530120482</v>
+        <v>1.853658536585366</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -500,7 +500,7 @@
         <v>2.16</v>
       </c>
       <c r="E3">
-        <v>2.41</v>
+        <v>2.432</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -512,7 +512,7 @@
         <v>2.896759259259259</v>
       </c>
       <c r="I3">
-        <v>2.596265560165976</v>
+        <v>2.572779605263158</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -529,7 +529,7 @@
         <v>8.023999999999999</v>
       </c>
       <c r="E4">
-        <v>7.841000000000001</v>
+        <v>8.202</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -541,7 +541,7 @@
         <v>2.950648055832503</v>
       </c>
       <c r="I4">
-        <v>3.019512817242698</v>
+        <v>2.886613021214338</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -558,7 +558,7 @@
         <v>27.083</v>
       </c>
       <c r="E5">
-        <v>27.214</v>
+        <v>28.576</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -570,7 +570,7 @@
         <v>3.222464276483403</v>
       </c>
       <c r="I5">
-        <v>3.206952303961196</v>
+        <v>3.054101343784994</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -587,7 +587,7 @@
         <v>94.152</v>
       </c>
       <c r="E6">
-        <v>90.235</v>
+        <v>94.82400000000001</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -599,7 +599,7 @@
         <v>3.200537428838474</v>
       </c>
       <c r="I6">
-        <v>3.339469163849948</v>
+        <v>3.177855817092719</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -616,7 +616,7 @@
         <v>302.522</v>
       </c>
       <c r="E7">
-        <v>287.543</v>
+        <v>300.584</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -628,7 +628,7 @@
         <v>3.268314370525119</v>
       </c>
       <c r="I7">
-        <v>3.438570926783124</v>
+        <v>3.289386660633966</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -645,7 +645,7 @@
         <v>965.196</v>
       </c>
       <c r="E8">
-        <v>876.48</v>
+        <v>906.289</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -657,7 +657,7 @@
         <v>3.192711117741889</v>
       </c>
       <c r="I8">
-        <v>3.515872581234027</v>
+        <v>3.400231052125757</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -674,7 +674,7 @@
         <v>2983.361</v>
       </c>
       <c r="E9">
-        <v>2625.923</v>
+        <v>2682.622</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -686,7 +686,7 @@
         <v>3.035391291901986</v>
       </c>
       <c r="I9">
-        <v>3.44856570432568</v>
+        <v>3.375677974757533</v>
       </c>
     </row>
   </sheetData>
